--- a/biology/Zoologie/Holmelgonia/Holmelgonia.xlsx
+++ b/biology/Zoologie/Holmelgonia/Holmelgonia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Holmelgonia est un genre d'araignées aranéomorphes de la famille des Linyphiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Holmelgonia est un genre d'araignées aranéomorphes de la famille des Linyphiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique subsaharienne[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique subsaharienne.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.0, 17/06/2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.0, 17/06/2022) :
 Holmelgonia afromontana Nzigidahera &amp; Jocqué, 2014
 Holmelgonia annemetteae (Scharff, 1990)
 Holmelgonia annulata (Jocqué &amp; Scharff, 1986)
@@ -590,9 +606,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Elgonella Holm, 1962[3], préoccupé par Elgonella Preston, 1914, remplacé par Elgonia par Holm en 1989[4], préoccupé par Elgonia Risbec, 1950 est remplacé par Holmelgonia par Jocqué et Scharff en 2007[5].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Elgonella Holm, 1962, préoccupé par Elgonella Preston, 1914, remplacé par Elgonia par Holm en 1989, préoccupé par Elgonia Risbec, 1950 est remplacé par Holmelgonia par Jocqué et Scharff en 2007.</t>
         </is>
       </c>
     </row>
@@ -620,9 +638,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est nommée en l'honneur d'Åke Holm[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est nommée en l'honneur d'Åke Holm.
 </t>
         </is>
       </c>
@@ -651,7 +671,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Jocqué &amp; Scharff, 2007 : « Holmelgonia, a new name for the genus Elgonia Holm, 1989 (Araneae, Linyphiidae). » Journal of Afrotropical Zoology, vol. 3, p. 161 (texte intégral).
 Holm, 1962 : « The spider fauna of the East African mountains. Part I: Fam. Erigonidae. » Zoologiska Bidrag från Uppsala, vol. 35, p. 19-204.
